--- a/data/trans_orig/P56S_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S_R-Estudios-trans_orig.xlsx
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4344</v>
+        <v>4759</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01116009311877347</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05207775682694963</v>
+        <v>0.05705137213442239</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4676</v>
+        <v>3859</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007298470388509282</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03665786285755139</v>
+        <v>0.03025087017203561</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5389</v>
+        <v>5398</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01270026944603701</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0646040314848767</v>
+        <v>0.06471350318827702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5585</v>
+        <v>6097</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008305713894274161</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0437866665396487</v>
+        <v>0.04779712581611186</v>
       </c>
     </row>
     <row r="8">
@@ -964,19 +964,19 @@
         <v>3461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>925</v>
+        <v>878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8144</v>
+        <v>8443</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07841882182636201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02096020583525818</v>
+        <v>0.01990072474206316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1845232958281026</v>
+        <v>0.1912951347412004</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -985,19 +985,19 @@
         <v>7417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3396</v>
+        <v>3244</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14170</v>
+        <v>15401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08892240009948443</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04070747550511716</v>
+        <v>0.0388853859793608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1698697752225805</v>
+        <v>0.1846250761228796</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1006,19 +1006,19 @@
         <v>10879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5769</v>
+        <v>4979</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19015</v>
+        <v>18646</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08528794506609701</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04522514016189594</v>
+        <v>0.03903644525969917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1490757633163143</v>
+        <v>0.1461841744616052</v>
       </c>
     </row>
     <row r="9">
@@ -1048,19 +1048,19 @@
         <v>4533</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1152</v>
+        <v>1109</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10431</v>
+        <v>10897</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05434853829518137</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0138106426555747</v>
+        <v>0.01328934105773855</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.125046722050666</v>
+        <v>0.1306332091471386</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1069,19 +1069,19 @@
         <v>4534</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11318</v>
+        <v>10137</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03554282147869195</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009039585650187604</v>
+        <v>0.009095748227166049</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08873048256709513</v>
+        <v>0.07947664956997058</v>
       </c>
     </row>
     <row r="10">
@@ -1098,19 +1098,19 @@
         <v>38124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32952</v>
+        <v>32940</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41621</v>
+        <v>41586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8637984596300756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7466229662746962</v>
+        <v>0.7463366712618145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9430481488858842</v>
+        <v>0.9422482617349912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1119,19 +1119,19 @@
         <v>60772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51580</v>
+        <v>51497</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67789</v>
+        <v>68153</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7285497431864491</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6183523974811113</v>
+        <v>0.6173636753128043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.812676521521659</v>
+        <v>0.8170338657117479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -1140,19 +1140,19 @@
         <v>98896</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87851</v>
+        <v>88153</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107093</v>
+        <v>107806</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7753485926314584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.688755783327175</v>
+        <v>0.6911180394510275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8396055826009383</v>
+        <v>0.8452025036581191</v>
       </c>
     </row>
     <row r="11">
@@ -1169,19 +1169,19 @@
         <v>2550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7371</v>
+        <v>7414</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05778271854356235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01720515238010509</v>
+        <v>0.01735151426375809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1669999740728844</v>
+        <v>0.1679840926107003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1190,19 +1190,19 @@
         <v>8702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4327</v>
+        <v>4065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16891</v>
+        <v>16045</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1043189558540747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0518768020299434</v>
+        <v>0.04872769939380108</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.202499272854999</v>
+        <v>0.1923466596391144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1211,19 +1211,19 @@
         <v>11252</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5976</v>
+        <v>5914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19123</v>
+        <v>19373</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08821645654096921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04685262504903007</v>
+        <v>0.0463648793845687</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.149924931222757</v>
+        <v>0.151881179496491</v>
       </c>
     </row>
     <row r="12">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4557</v>
+        <v>4710</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1715025568938296</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6732778822923626</v>
+        <v>0.6957771242737937</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4775</v>
+        <v>4689</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1063597907488093</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4375105807467838</v>
+        <v>0.4296663134726881</v>
       </c>
     </row>
     <row r="18">
@@ -1613,7 +1613,7 @@
         <v>3327</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>828</v>
+        <v>878</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>4146</v>
@@ -1622,7 +1622,7 @@
         <v>0.8025139376231856</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1997764478368243</v>
+        <v>0.2118051967200546</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>4288</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>6769</v>
@@ -1643,7 +1643,7 @@
         <v>0.6334836363033026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1509143055776039</v>
+        <v>0.1542319656179853</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1655,19 +1655,19 @@
         <v>7615</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3674</v>
+        <v>3819</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10043</v>
+        <v>10037</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6976873519197407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3366643397759467</v>
+        <v>0.3499417912383815</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.920212544292453</v>
+        <v>0.9196483463227052</v>
       </c>
     </row>
     <row r="20">
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3318</v>
+        <v>3268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1974860623768145</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8002235521631758</v>
+        <v>0.7881948032799454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4790</v>
+        <v>4920</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1950138068028678</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7075641527179353</v>
+        <v>0.7267893008096574</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6296</v>
+        <v>6363</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1959528573314499</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5768877442428441</v>
+        <v>0.5829960983316081</v>
       </c>
     </row>
     <row r="21">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>4836</v>
+        <v>5082</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.009951655140658371</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05170041195892871</v>
+        <v>0.05432313327012159</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4697</v>
+        <v>5011</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.006563872306161771</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0331191102556042</v>
+        <v>0.03533168562589505</v>
       </c>
     </row>
     <row r="34">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5273</v>
+        <v>5728</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01132505798789349</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05636690093508012</v>
+        <v>0.06122871120656589</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4589</v>
+        <v>6209</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007469735781810095</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03235990747599847</v>
+        <v>0.0437763575206089</v>
       </c>
     </row>
     <row r="35">
@@ -2489,19 +2489,19 @@
         <v>3461</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07168534256005003</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2510,19 +2510,19 @@
         <v>9739</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4428</v>
+        <v>4503</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17432</v>
+        <v>18109</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1041128270448593</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04733049286483607</v>
+        <v>0.04813554929887203</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1863487299131111</v>
+        <v>0.1935898667859195</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -2531,19 +2531,19 @@
         <v>13200</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7816</v>
+        <v>6800</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21702</v>
+        <v>21181</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09307373116072741</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05511206843949409</v>
+        <v>0.04794411251834887</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1530211165836378</v>
+        <v>0.1493441126116334</v>
       </c>
     </row>
     <row r="36">
@@ -2573,19 +2573,19 @@
         <v>4534</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11223</v>
+        <v>10350</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04846356609719327</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01220921281170157</v>
+        <v>0.01222859168322625</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1199692966986048</v>
+        <v>0.1106470767504081</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -2594,19 +2594,19 @@
         <v>4533</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10214</v>
+        <v>10421</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03196540222375133</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.008176581780920782</v>
+        <v>0.008214921848613334</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07201707522145609</v>
+        <v>0.07347537972296533</v>
       </c>
     </row>
     <row r="37">
@@ -2623,19 +2623,19 @@
         <v>41451</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>36050</v>
+        <v>35871</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44966</v>
+        <v>44884</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8585362273155815</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7466761878708803</v>
+        <v>0.742964941540127</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9313391737089719</v>
+        <v>0.9296486422790955</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>61</v>
@@ -2644,19 +2644,19 @@
         <v>67260</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>58239</v>
+        <v>57730</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>75804</v>
+        <v>75649</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7190130214911202</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6225799900091378</v>
+        <v>0.6171358984087222</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8103453162994166</v>
+        <v>0.808686749748513</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>106</v>
@@ -2665,19 +2665,19 @@
         <v>108710</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>96500</v>
+        <v>97613</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>118096</v>
+        <v>117862</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.766510077510967</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6804193048540106</v>
+        <v>0.6882655740973134</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8326882439682649</v>
+        <v>0.8310382305969679</v>
       </c>
     </row>
     <row r="38">
@@ -2694,19 +2694,19 @@
         <v>3369</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06977843012436839</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -2715,19 +2715,19 @@
         <v>10022</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1071338722382753</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>13</v>
@@ -2736,19 +2736,19 @@
         <v>13391</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09441718101658243</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
     </row>
     <row r="39">
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5474</v>
+        <v>4986</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01609183710220513</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08004349550148805</v>
+        <v>0.07290922211098151</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5001</v>
+        <v>4965</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005334119880296594</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02689317680134029</v>
+        <v>0.02670122029737249</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7196</v>
+        <v>6987</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00822689456048243</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0282940282084527</v>
+        <v>0.0274691827900441</v>
       </c>
     </row>
     <row r="5">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4391</v>
+        <v>5295</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01514477906455775</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06419582879190275</v>
+        <v>0.07742627681306417</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3174,16 +3174,16 @@
         <v>1106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12141</v>
+        <v>12120</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02284054061589375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005949737118828463</v>
+        <v>0.005947917544242286</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06529104260554856</v>
+        <v>0.06517653499239287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -3192,19 +3192,19 @@
         <v>5283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1108</v>
+        <v>1131</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12652</v>
+        <v>14485</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02077113279439843</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004355042724326583</v>
+        <v>0.004444838490353967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04974540048797966</v>
+        <v>0.05695161097879856</v>
       </c>
     </row>
     <row r="6">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7827</v>
+        <v>7087</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03236353518189827</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.114437233566158</v>
+        <v>0.1036272817481576</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -3242,19 +3242,19 @@
         <v>16991</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10686</v>
+        <v>9874</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25514</v>
+        <v>26525</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09137665933199722</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05746920919735293</v>
+        <v>0.05310030744031499</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1372074896805461</v>
+        <v>0.1426486247446057</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -3263,19 +3263,19 @@
         <v>19205</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11623</v>
+        <v>12565</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30036</v>
+        <v>29605</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07550789574408581</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04569729036497286</v>
+        <v>0.0494031735114931</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1180942259287798</v>
+        <v>0.1163992538004472</v>
       </c>
     </row>
     <row r="7">
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7908</v>
+        <v>8152</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01149009593896293</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04252652422131548</v>
+        <v>0.04383856299638954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6863</v>
+        <v>7421</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008400382952508242</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02698524875682979</v>
+        <v>0.02917807298511648</v>
       </c>
     </row>
     <row r="8">
@@ -3355,19 +3355,19 @@
         <v>4307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11132</v>
+        <v>9964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06297741136064453</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01668533757070917</v>
+        <v>0.01653181366294803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1627617283793672</v>
+        <v>0.1456867087986234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3376,19 +3376,19 @@
         <v>16028</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9276</v>
+        <v>9462</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25715</v>
+        <v>25889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08619355522660195</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04988575735841776</v>
+        <v>0.05088227197314817</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1382922746475183</v>
+        <v>0.1392290197995975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -3397,19 +3397,19 @@
         <v>20335</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12492</v>
+        <v>12516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31338</v>
+        <v>31127</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07995068122632416</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04911444510088829</v>
+        <v>0.04921009353653434</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1232116347129119</v>
+        <v>0.1223808842037912</v>
       </c>
     </row>
     <row r="9">
@@ -3426,19 +3426,19 @@
         <v>6498</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2938</v>
+        <v>2210</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13259</v>
+        <v>12424</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09501635095171011</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04295564809504386</v>
+        <v>0.03231828712360557</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1938706895246738</v>
+        <v>0.1816601622262928</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -3447,19 +3447,19 @@
         <v>22986</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14432</v>
+        <v>15124</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33593</v>
+        <v>32762</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1236156310836346</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07761220020616859</v>
+        <v>0.08133300178561524</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1806553175039921</v>
+        <v>0.1761867882980238</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -3468,19 +3468,19 @@
         <v>29485</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20496</v>
+        <v>19525</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40809</v>
+        <v>40848</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1159252194720813</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08058310213744463</v>
+        <v>0.07676736944326137</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1604494373007745</v>
+        <v>0.1606019629642257</v>
       </c>
     </row>
     <row r="10">
@@ -3497,19 +3497,19 @@
         <v>51182</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42240</v>
+        <v>43657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57488</v>
+        <v>58207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7483493406575035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.617610848491767</v>
+        <v>0.6383264707963054</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8405500062585018</v>
+        <v>0.8510609565277125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -3518,19 +3518,19 @@
         <v>109116</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94498</v>
+        <v>94686</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122622</v>
+        <v>122261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5868072049491202</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5081939897542131</v>
+        <v>0.5092042856199497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6594377264418679</v>
+        <v>0.6574974048827318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -3539,19 +3539,19 @@
         <v>160298</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144147</v>
+        <v>145686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174397</v>
+        <v>176344</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6302462534313269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5667454795286586</v>
+        <v>0.5727963170158531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6856803733310662</v>
+        <v>0.6933327900813174</v>
       </c>
     </row>
     <row r="11">
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7701</v>
+        <v>6431</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03005674568148076</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1126019065787965</v>
+        <v>0.09402434567108918</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -3589,19 +3589,19 @@
         <v>13452</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7609</v>
+        <v>7357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20965</v>
+        <v>22878</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07234219297349273</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04092200745303765</v>
+        <v>0.039565109230245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1127440812421355</v>
+        <v>0.1230353143712681</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -3610,19 +3610,19 @@
         <v>15508</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8313</v>
+        <v>9241</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24422</v>
+        <v>24110</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06097153981879273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03268362101894781</v>
+        <v>0.03633320448231428</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09602047489625946</v>
+        <v>0.09479385695288634</v>
       </c>
     </row>
     <row r="12">
@@ -3915,19 +3915,19 @@
         <v>3109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6822</v>
+        <v>7389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.264307409102132</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0823336077044389</v>
+        <v>0.08400349087673403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5799816551626378</v>
+        <v>0.6281557760404601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -3936,19 +3936,19 @@
         <v>3109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7451</v>
+        <v>7397</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1488344802586839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04569651208552464</v>
+        <v>0.04625270766112025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3566888709039452</v>
+        <v>0.3541238779981801</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>8654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4941</v>
+        <v>4374</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10795</v>
+        <v>10775</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.735692590897868</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4200183448373684</v>
+        <v>0.37184422395954</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9176663922955611</v>
+        <v>0.9159965091232659</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -4046,19 +4046,19 @@
         <v>17780</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13438</v>
+        <v>13492</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19934</v>
+        <v>19923</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8511655197413162</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6433111290960551</v>
+        <v>0.6458761220018199</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9543034879144754</v>
+        <v>0.9537472923388798</v>
       </c>
     </row>
     <row r="20">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1822155296324148</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7808273125589497</v>
+        <v>0.7804907190698395</v>
       </c>
     </row>
     <row r="24">
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4424</v>
+        <v>4422</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.408277324720502</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8178550424380785</v>
+        <v>0.8175601019631361</v>
       </c>
     </row>
     <row r="27">
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4435</v>
+        <v>4444</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4095071456470832</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8198587481524575</v>
+        <v>0.8216205085967261</v>
       </c>
     </row>
     <row r="29">
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5771</v>
+        <v>5035</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01401918089039714</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07350904978936494</v>
+        <v>0.06413002357449679</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5407</v>
+        <v>4991</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004906992205126505</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02674801329474282</v>
+        <v>0.02469280793883576</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6547</v>
+        <v>6424</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.007455990903475304</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02332811928429688</v>
+        <v>0.02289003638042846</v>
       </c>
     </row>
     <row r="32">
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7017</v>
+        <v>6626</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02574857343612543</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08938866097377103</v>
+        <v>0.08440028601997759</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -4780,19 +4780,19 @@
         <v>4247</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12984</v>
+        <v>13094</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02101159277973222</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005482521194215669</v>
+        <v>0.005477778398796407</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06423544413455935</v>
+        <v>0.06477986186473583</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -4801,19 +4801,19 @@
         <v>6269</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2158</v>
+        <v>2082</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15478</v>
+        <v>14656</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02233669237372631</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007691021969140181</v>
+        <v>0.007419417598207693</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05515203731556342</v>
+        <v>0.05222224372556074</v>
       </c>
     </row>
     <row r="33">
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>7152</v>
+        <v>6955</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02819505635597008</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09110712860543675</v>
+        <v>0.08859868129971894</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>16</v>
@@ -4851,19 +4851,19 @@
         <v>16991</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>10043</v>
+        <v>10399</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>25638</v>
+        <v>26855</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08405970715597767</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04968242250716898</v>
+        <v>0.05144573184617546</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1268366200713952</v>
+        <v>0.1328583976109855</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>18</v>
@@ -4872,19 +4872,19 @@
         <v>19205</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>11804</v>
+        <v>11714</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>28891</v>
+        <v>29332</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06843240540759425</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04206177206345987</v>
+        <v>0.04174159029852442</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1029464467478844</v>
+        <v>0.1045195530986752</v>
       </c>
     </row>
     <row r="34">
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7321</v>
+        <v>7214</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01057003075932215</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0362195339659933</v>
+        <v>0.03568717309942245</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7561</v>
+        <v>7726</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007613222512959693</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0269422609168521</v>
+        <v>0.02752865880189978</v>
       </c>
     </row>
     <row r="35">
@@ -4964,19 +4964,19 @@
         <v>4307</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9972</v>
+        <v>10399</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05486581278857476</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01361658842172923</v>
+        <v>0.01360063731196772</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1270193127156354</v>
+        <v>0.1324603792494276</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -4985,19 +4985,19 @@
         <v>21345</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14127</v>
+        <v>13149</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32810</v>
+        <v>31599</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1055971575770044</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06989013877552287</v>
+        <v>0.06505002809324964</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1623170943184903</v>
+        <v>0.1563262068162841</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>23</v>
@@ -5006,19 +5006,19 @@
         <v>25652</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17489</v>
+        <v>17292</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>37210</v>
+        <v>37697</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09140582152179071</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06231744800361649</v>
+        <v>0.06161642890557648</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1325903731256195</v>
+        <v>0.1343248849732012</v>
       </c>
     </row>
     <row r="36">
@@ -5035,19 +5035,19 @@
         <v>6498</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2223</v>
+        <v>2300</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13348</v>
+        <v>13249</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08277808202240294</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02832125022361182</v>
+        <v>0.02930069837521274</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1700245803471441</v>
+        <v>0.1687708181636544</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>21</v>
@@ -5056,19 +5056,19 @@
         <v>22986</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14275</v>
+        <v>15099</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>32955</v>
+        <v>33886</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1137171551767713</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07062122208569398</v>
+        <v>0.07469526388524626</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1630343438794545</v>
+        <v>0.1676428492866495</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>27</v>
@@ -5077,19 +5077,19 @@
         <v>29485</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>19869</v>
+        <v>20182</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>41035</v>
+        <v>41222</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1050624115226938</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07079941205073451</v>
+        <v>0.07191305987142149</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1462201861337911</v>
+        <v>0.1468839998992631</v>
       </c>
     </row>
     <row r="37">
@@ -5106,19 +5106,19 @@
         <v>60308</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>51603</v>
+        <v>51029</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>67411</v>
+        <v>67495</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7682079092078181</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6573159379555693</v>
+        <v>0.6500121485735794</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8586846168518376</v>
+        <v>0.859758796631402</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>110</v>
@@ -5127,19 +5127,19 @@
         <v>119985</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>105112</v>
+        <v>104704</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>133513</v>
+        <v>133912</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5935879456999014</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5200064673481462</v>
+        <v>0.5179918409838287</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6605145633530777</v>
+        <v>0.6624883236445082</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>161</v>
@@ -5148,19 +5148,19 @@
         <v>180293</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>164479</v>
+        <v>164335</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>196577</v>
+        <v>197406</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.642435272622234</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5860860901788811</v>
+        <v>0.5855735204456753</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7004601762116974</v>
+        <v>0.7034132012785465</v>
       </c>
     </row>
     <row r="38">
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>13</v>
@@ -5198,19 +5198,19 @@
         <v>13452</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7696</v>
+        <v>7158</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>22236</v>
+        <v>21476</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06654941864616437</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03807259682879708</v>
+        <v>0.03541289458553529</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1100038801542099</v>
+        <v>0.1062463142480602</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>15</v>
@@ -5219,19 +5219,19 @@
         <v>15508</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>8600</v>
+        <v>9259</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>24781</v>
+        <v>24530</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05525818313552601</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03064324794999224</v>
+        <v>0.03299152785732563</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08830155539818899</v>
+        <v>0.08740712248106472</v>
       </c>
     </row>
     <row r="39">
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8439</v>
+        <v>8229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01708288284536599</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05912284674710314</v>
+        <v>0.05765432890156637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8504</v>
+        <v>8649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01222678322529725</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04264425605617012</v>
+        <v>0.0433682204736629</v>
       </c>
     </row>
     <row r="6">
@@ -5675,16 +5675,16 @@
         <v>1607</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9373</v>
+        <v>9394</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0741934063411278</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02834503995345538</v>
+        <v>0.02833894824147198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1653364811681944</v>
+        <v>0.1657039103132519</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -5693,19 +5693,19 @@
         <v>6558</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2398</v>
+        <v>2501</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14538</v>
+        <v>14582</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04594275186610668</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01680393890643652</v>
+        <v>0.01752538873447286</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1018545375925194</v>
+        <v>0.1021652237671387</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -5714,19 +5714,19 @@
         <v>10764</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5230</v>
+        <v>5371</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18724</v>
+        <v>18864</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05397348026860567</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02622393992693342</v>
+        <v>0.02693085037718661</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09389093835581314</v>
+        <v>0.09459086231734981</v>
       </c>
     </row>
     <row r="7">
@@ -5790,19 +5790,19 @@
         <v>5569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2581</v>
+        <v>2164</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10848</v>
+        <v>11063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09824619426327937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04552408286331504</v>
+        <v>0.03817042891326151</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1913683152167798</v>
+        <v>0.1951459631586012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -5811,19 +5811,19 @@
         <v>18242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9949</v>
+        <v>10463</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27797</v>
+        <v>28139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1278058008873586</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06970039102045469</v>
+        <v>0.07330220900241542</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1947486016142597</v>
+        <v>0.1971428659923634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -5832,19 +5832,19 @@
         <v>23812</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15389</v>
+        <v>15225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35558</v>
+        <v>36031</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1194029806025194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0771681437778766</v>
+        <v>0.07634529682403549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1783049970558832</v>
+        <v>0.1806748484230201</v>
       </c>
     </row>
     <row r="9">
@@ -5861,19 +5861,19 @@
         <v>2837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7771</v>
+        <v>8171</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05004699436105458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01325310081599407</v>
+        <v>0.01333141358846526</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1370755618832685</v>
+        <v>0.144135901406024</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -5882,19 +5882,19 @@
         <v>6339</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2405</v>
+        <v>2229</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12942</v>
+        <v>13764</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04441252261599358</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01684715320867767</v>
+        <v>0.01561371045398112</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09067338958210915</v>
+        <v>0.09643370822796063</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -5903,19 +5903,19 @@
         <v>9176</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4196</v>
+        <v>4204</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17285</v>
+        <v>17645</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04601421691713439</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02104171705011058</v>
+        <v>0.02108216560309838</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08667706077079583</v>
+        <v>0.08848229413932082</v>
       </c>
     </row>
     <row r="10">
@@ -5932,19 +5932,19 @@
         <v>42339</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35294</v>
+        <v>35810</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47639</v>
+        <v>47709</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7468629677136223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6225927198620386</v>
+        <v>0.6316908158407988</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8403625687737334</v>
+        <v>0.8415942031373763</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -5953,19 +5953,19 @@
         <v>87571</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74279</v>
+        <v>74294</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100270</v>
+        <v>100107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6135276217217984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5204013574463375</v>
+        <v>0.520508842826882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7024959958373279</v>
+        <v>0.7013515830650562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -5974,19 +5974,19 @@
         <v>129910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115277</v>
+        <v>113717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144320</v>
+        <v>142940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6514304586652873</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5780534847697193</v>
+        <v>0.5702294371537681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7236868008004208</v>
+        <v>0.7167660303808124</v>
       </c>
     </row>
     <row r="11">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5455</v>
+        <v>6103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03065043732091598</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09622462600257302</v>
+        <v>0.1076627816226582</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -6024,19 +6024,19 @@
         <v>21585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13177</v>
+        <v>13576</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33416</v>
+        <v>32664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1512284200633768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09231972559078612</v>
+        <v>0.09511244902535568</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2341129341407135</v>
+        <v>0.2288477508215857</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -6045,19 +6045,19 @@
         <v>23323</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14898</v>
+        <v>14382</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35456</v>
+        <v>34358</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.116952080321156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07470688527982595</v>
+        <v>0.07211698058934821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1777910055387948</v>
+        <v>0.1722855075251461</v>
       </c>
     </row>
     <row r="12">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6180</v>
+        <v>5196</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04769952913108006</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2434781462184435</v>
+        <v>0.204700850654769</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5378</v>
+        <v>5975</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03311459944018518</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1470891551602874</v>
+        <v>0.1634158509187457</v>
       </c>
     </row>
     <row r="16">
@@ -6353,19 +6353,19 @@
         <v>4177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1441</v>
+        <v>1474</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7345</v>
+        <v>7386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3735867870492348</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1288558348973847</v>
+        <v>0.1318150596448733</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6570203166665659</v>
+        <v>0.6606017283866225</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -6374,19 +6374,19 @@
         <v>4512</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1043</v>
+        <v>1082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11174</v>
+        <v>11347</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1777456667274171</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04110693608782794</v>
+        <v>0.04263788439155813</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4401836081451319</v>
+        <v>0.4469975606047984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -6395,19 +6395,19 @@
         <v>8689</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4456</v>
+        <v>3912</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15933</v>
+        <v>15655</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2376273683398271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.121872586243256</v>
+        <v>0.1069877099418589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4357442085480964</v>
+        <v>0.4281617617803173</v>
       </c>
     </row>
     <row r="18">
@@ -6471,19 +6471,19 @@
         <v>4696</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1786</v>
+        <v>1871</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7774</v>
+        <v>8048</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4200653679683481</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1597338744669957</v>
+        <v>0.1673512336200174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6953504374519304</v>
+        <v>0.719843505627938</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6492,19 +6492,19 @@
         <v>14929</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9261</v>
+        <v>9189</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20308</v>
+        <v>20908</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5881273910143905</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3648389754791166</v>
+        <v>0.3619989544687301</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8000504061502328</v>
+        <v>0.8236834259477611</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -6513,19 +6513,19 @@
         <v>19625</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12331</v>
+        <v>13041</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25885</v>
+        <v>26380</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5367396135145295</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3372313265783117</v>
+        <v>0.3566622067462391</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7079283159793398</v>
+        <v>0.7214698263520932</v>
       </c>
     </row>
     <row r="20">
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6114</v>
+        <v>6272</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2063478449824171</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5468704076294197</v>
+        <v>0.561036635853377</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6563,19 +6563,19 @@
         <v>4732</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1127</v>
+        <v>1154</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9757</v>
+        <v>10089</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1864274131271123</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04439900064538491</v>
+        <v>0.04544763057974457</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.384369040498162</v>
+        <v>0.3974712309297724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -6584,19 +6584,19 @@
         <v>7039</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2366</v>
+        <v>2839</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13433</v>
+        <v>13013</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1925184187054583</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06471194815847153</v>
+        <v>0.07764240841414284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3673712462999867</v>
+        <v>0.3558960280220896</v>
       </c>
     </row>
     <row r="21">
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5996</v>
+        <v>5408</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1741889227293901</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7592006314974553</v>
+        <v>0.6846876149727729</v>
       </c>
     </row>
     <row r="27">
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6531</v>
+        <v>6327</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3090023804438241</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8269617885208892</v>
+        <v>0.8010329743135767</v>
       </c>
     </row>
     <row r="29">
@@ -7091,19 +7091,19 @@
         <v>4082</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1021</v>
+        <v>1047</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7041</v>
+        <v>7152</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5168086968267859</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1292656004495704</v>
+        <v>0.132522115515828</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8914396564179162</v>
+        <v>0.9055657102492034</v>
       </c>
     </row>
     <row r="30">
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7178</v>
+        <v>8552</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0141936601127321</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04178491297579999</v>
+        <v>0.04978414754533993</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7404</v>
+        <v>8458</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009997756885252576</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03035766344929366</v>
+        <v>0.03468043115690918</v>
       </c>
     </row>
     <row r="33">
@@ -7305,19 +7305,19 @@
         <v>4206</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8751</v>
+        <v>9046</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05833793241762878</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02214456964967699</v>
+        <v>0.02221541278396244</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1213718196971734</v>
+        <v>0.1254732645850176</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -7326,19 +7326,19 @@
         <v>7768</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3513</v>
+        <v>2521</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>16254</v>
+        <v>16097</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04522063677339887</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0204490339909256</v>
+        <v>0.01467574469887205</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09461449874645682</v>
+        <v>0.09370138175092746</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>11</v>
@@ -7347,19 +7347,19 @@
         <v>11974</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5874</v>
+        <v>6187</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>20741</v>
+        <v>20705</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04909834715199642</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02408675237057131</v>
+        <v>0.02537038925319327</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08504228942117327</v>
+        <v>0.08489725628697212</v>
       </c>
     </row>
     <row r="34">
@@ -7423,19 +7423,19 @@
         <v>9746</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1351821428706154</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>18</v>
@@ -7444,19 +7444,19 @@
         <v>24130</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>15201</v>
+        <v>14433</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>36840</v>
+        <v>37253</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1404626585733023</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08848667108150256</v>
+        <v>0.08401647207736038</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2144507117137811</v>
+        <v>0.2168517736065554</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>29</v>
@@ -7465,19 +7465,19 @@
         <v>33876</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23199</v>
+        <v>22927</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>46750</v>
+        <v>47464</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.138901642408079</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09512461190206938</v>
+        <v>0.0940091209059182</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1916905870576374</v>
+        <v>0.1946166266321296</v>
       </c>
     </row>
     <row r="36">
@@ -7497,16 +7497,16 @@
         <v>741</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8492</v>
+        <v>8605</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03935172030404811</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01028429901579257</v>
+        <v>0.01027634499372077</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1177816731560914</v>
+        <v>0.1193470203408773</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -7515,19 +7515,19 @@
         <v>6339</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2465</v>
+        <v>2454</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13806</v>
+        <v>13673</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03690104629684562</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01435196444079795</v>
+        <v>0.01428410951507401</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08036694060173434</v>
+        <v>0.07959365953980264</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -7536,19 +7536,19 @@
         <v>9176</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4062</v>
+        <v>4601</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17429</v>
+        <v>18147</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03762550995841359</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01665417678052865</v>
+        <v>0.01886410874921862</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07146603618436853</v>
+        <v>0.07440823037278961</v>
       </c>
     </row>
     <row r="37">
@@ -7565,19 +7565,19 @@
         <v>49476</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>41807</v>
+        <v>41406</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>56824</v>
+        <v>55912</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6862451308847953</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5798710806798869</v>
+        <v>0.5743126738752284</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7881627857194959</v>
+        <v>0.7755113083280597</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>82</v>
@@ -7586,19 +7586,19 @@
         <v>102500</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>88054</v>
+        <v>86382</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>115827</v>
+        <v>116254</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5966646470906173</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5125725471127556</v>
+        <v>0.5028421465212634</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6742421597137933</v>
+        <v>0.6767313271124565</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>136</v>
@@ -7607,19 +7607,19 @@
         <v>151976</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>134349</v>
+        <v>135233</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>167478</v>
+        <v>167702</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6231462619866934</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.550868808985446</v>
+        <v>0.5544936796885551</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6867069067481406</v>
+        <v>0.6876289223124168</v>
       </c>
     </row>
     <row r="38">
@@ -7636,19 +7636,19 @@
         <v>5831</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08088307352291238</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>24</v>
@@ -7657,19 +7657,19 @@
         <v>28613</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1665573511531038</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>29</v>
@@ -7678,19 +7678,19 @@
         <v>34444</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1412304816095649</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
     </row>
     <row r="39">
@@ -8021,19 +8021,19 @@
         <v>2152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6557</v>
+        <v>5903</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02978302728166508</v>
+        <v>0.02978302728166509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0069074995342463</v>
+        <v>0.007171215073724666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09075770018353405</v>
+        <v>0.08170490170335612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -8042,19 +8042,19 @@
         <v>7311</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3875</v>
+        <v>3955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12315</v>
+        <v>12660</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03366661155706713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0178428964078678</v>
+        <v>0.01820991571268301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05670481405264596</v>
+        <v>0.05829362122387968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -8063,19 +8063,19 @@
         <v>9463</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5495</v>
+        <v>5542</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15186</v>
+        <v>15523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03269713758568465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01898501511796044</v>
+        <v>0.01914896983781044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05247062290748547</v>
+        <v>0.05363676078573187</v>
       </c>
     </row>
     <row r="5">
@@ -8092,19 +8092,19 @@
         <v>5491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2691</v>
+        <v>2673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9809</v>
+        <v>9474</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0760005831558246</v>
+        <v>0.07600058315582461</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03724704960991127</v>
+        <v>0.03699149615079814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.135767049265459</v>
+        <v>0.1311268032087473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -8113,19 +8113,19 @@
         <v>14788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9849</v>
+        <v>10261</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20871</v>
+        <v>20987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06809364306079485</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04535238087084896</v>
+        <v>0.04724736159035016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09610397995927798</v>
+        <v>0.09663907479745512</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -8134,19 +8134,19 @@
         <v>20279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14755</v>
+        <v>14560</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27769</v>
+        <v>27243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07006748270783544</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.050982312000142</v>
+        <v>0.05030757813081005</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09594838603039638</v>
+        <v>0.09412913663086245</v>
       </c>
     </row>
     <row r="6">
@@ -8163,19 +8163,19 @@
         <v>11603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6590</v>
+        <v>7039</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17487</v>
+        <v>17590</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1605966746108778</v>
+        <v>0.1605966746108779</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0912201699888924</v>
+        <v>0.09742925525103002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2420461524802727</v>
+        <v>0.2434640774865893</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>89</v>
@@ -8184,19 +8184,19 @@
         <v>44970</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36156</v>
+        <v>36719</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54131</v>
+        <v>54164</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.207074827635012</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1664895070347873</v>
+        <v>0.1690782591017788</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2492576953894596</v>
+        <v>0.2494087056108348</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>107</v>
@@ -8205,19 +8205,19 @@
         <v>56573</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46403</v>
+        <v>47702</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67406</v>
+        <v>68131</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.195472308827778</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1603338008752392</v>
+        <v>0.1648208174285527</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2329016707289928</v>
+        <v>0.2354079444358572</v>
       </c>
     </row>
     <row r="7">
@@ -8237,16 +8237,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5350</v>
+        <v>4869</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02018932379584219</v>
+        <v>0.0201893237958422</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07405425705638299</v>
+        <v>0.06739706630818657</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -8255,19 +8255,19 @@
         <v>1630</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4433</v>
+        <v>4272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007506376087058913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00156321674155737</v>
+        <v>0.001574826787002853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02041046584735245</v>
+        <v>0.01967291523526849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -8276,19 +8276,19 @@
         <v>3089</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1231</v>
+        <v>1257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6794</v>
+        <v>7133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01067246875098024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004253099652339611</v>
+        <v>0.004343041176845318</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02347619541734335</v>
+        <v>0.02464550771063062</v>
       </c>
     </row>
     <row r="8">
@@ -8305,19 +8305,19 @@
         <v>2605</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6900</v>
+        <v>6968</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03605516038147739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009626669052182422</v>
+        <v>0.009335903972521356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09550084053502132</v>
+        <v>0.09645050143782345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -8326,19 +8326,19 @@
         <v>16513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11261</v>
+        <v>11414</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24101</v>
+        <v>23752</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07603789933306083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05185382628617007</v>
+        <v>0.05256023559066245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.110976127160571</v>
+        <v>0.1093705542344326</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -8347,19 +8347,19 @@
         <v>19118</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13456</v>
+        <v>13473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27846</v>
+        <v>27771</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06605685554223739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0464946143038426</v>
+        <v>0.0465537589744497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09621468343806691</v>
+        <v>0.0959538552333869</v>
       </c>
     </row>
     <row r="9">
@@ -8376,19 +8376,19 @@
         <v>4127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1596</v>
+        <v>1678</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8290</v>
+        <v>9304</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05712595568798889</v>
+        <v>0.0571259556879889</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02208787834700564</v>
+        <v>0.02322684903708571</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1147444404179905</v>
+        <v>0.1287784453616466</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -8397,19 +8397,19 @@
         <v>9463</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5904</v>
+        <v>6167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14632</v>
+        <v>15260</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04357345546315265</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02718460745853149</v>
+        <v>0.02839842303797383</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06737383582304166</v>
+        <v>0.0702674325585471</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -8418,19 +8418,19 @@
         <v>13590</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8882</v>
+        <v>8818</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19792</v>
+        <v>20068</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04695661784187403</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03068898444970939</v>
+        <v>0.03046697986149208</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0683857844770662</v>
+        <v>0.06933922116572083</v>
       </c>
     </row>
     <row r="10">
@@ -8447,19 +8447,19 @@
         <v>42039</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35022</v>
+        <v>34917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48967</v>
+        <v>48880</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5818747739605161</v>
+        <v>0.5818747739605162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4847528167689796</v>
+        <v>0.4832989169105613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6777661692410791</v>
+        <v>0.6765519223211049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -8468,19 +8468,19 @@
         <v>113773</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103131</v>
+        <v>102027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124562</v>
+        <v>124200</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5238895821867348</v>
+        <v>0.5238895821867345</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4748869692281438</v>
+        <v>0.4698035326338778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5735705752239141</v>
+        <v>0.5719028898557746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>276</v>
@@ -8489,19 +8489,19 @@
         <v>155812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142960</v>
+        <v>142994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169681</v>
+        <v>169279</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5383646470144404</v>
+        <v>0.5383646470144405</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4939578356032114</v>
+        <v>0.4940749195055483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5862870813500225</v>
+        <v>0.5848966048672292</v>
       </c>
     </row>
     <row r="11">
@@ -8518,19 +8518,19 @@
         <v>2772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7001</v>
+        <v>7056</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03837450112580768</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01333716151251914</v>
+        <v>0.01383843953248313</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09689906977569214</v>
+        <v>0.09766673393027298</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -8539,19 +8539,19 @@
         <v>8721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5327</v>
+        <v>5275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13827</v>
+        <v>13500</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04015760467711896</v>
+        <v>0.04015760467711897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02452830806470093</v>
+        <v>0.02429119169516884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06366726248968341</v>
+        <v>0.06216279078577924</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -8560,19 +8560,19 @@
         <v>11493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7545</v>
+        <v>7278</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17188</v>
+        <v>16797</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0397124817291698</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02607007789942175</v>
+        <v>0.02514862232902903</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05938781010186806</v>
+        <v>0.05803694607282936</v>
       </c>
     </row>
     <row r="12">
@@ -8677,19 +8677,19 @@
         <v>1813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4541</v>
+        <v>4715</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0377228950041375</v>
+        <v>0.03772289500413748</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01141272204328307</v>
+        <v>0.01160770026820057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09447411391749369</v>
+        <v>0.09810544912249659</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -8698,19 +8698,19 @@
         <v>1813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4862</v>
+        <v>4887</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02365209752111937</v>
+        <v>0.02365209752111936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007280179071911513</v>
+        <v>0.007364505355476544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06342205723033338</v>
+        <v>0.06374983088716449</v>
       </c>
     </row>
     <row r="14">
@@ -8727,19 +8727,19 @@
         <v>2600</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5536</v>
+        <v>5967</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09092598380317723</v>
+        <v>0.09092598380317722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02283812148683</v>
+        <v>0.02329652589387501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1936014652334292</v>
+        <v>0.2086996886211388</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -8748,19 +8748,19 @@
         <v>2856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>996</v>
+        <v>1113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6451</v>
+        <v>6307</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05942012904741272</v>
+        <v>0.05942012904741269</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02072371747016288</v>
+        <v>0.02315762392800359</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1342266530132699</v>
+        <v>0.1312355782407502</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -8769,19 +8769,19 @@
         <v>5456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2649</v>
+        <v>2760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9997</v>
+        <v>9960</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07117194453636505</v>
+        <v>0.07117194453636504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03455403459564196</v>
+        <v>0.03600577741002906</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1304135392624426</v>
+        <v>0.1299299435848211</v>
       </c>
     </row>
     <row r="15">
@@ -8798,19 +8798,19 @@
         <v>2670</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5839</v>
+        <v>5803</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09337304557392474</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03496511481298852</v>
+        <v>0.03375728261066463</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2042226012631598</v>
+        <v>0.2029433027639263</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -8819,19 +8819,19 @@
         <v>5421</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2708</v>
+        <v>2946</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8983</v>
+        <v>9622</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1127917388171214</v>
+        <v>0.1127917388171213</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05634094819130396</v>
+        <v>0.06129673357478275</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1868947558775311</v>
+        <v>0.2002005211760691</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -8840,19 +8840,19 @@
         <v>8091</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4717</v>
+        <v>5173</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13061</v>
+        <v>13201</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1055484850854048</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06153266024303149</v>
+        <v>0.06748957549179051</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1703867534350121</v>
+        <v>0.1722159892133004</v>
       </c>
     </row>
     <row r="16">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3405</v>
+        <v>4198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02414877915220141</v>
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1190932852627992</v>
+        <v>0.1468021096256556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -8890,19 +8890,19 @@
         <v>1796</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4850</v>
+        <v>4492</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03737627308420141</v>
+        <v>0.03737627308420139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009533904638192767</v>
+        <v>0.009495402222405268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1009156817097592</v>
+        <v>0.09346076598966974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -8911,19 +8911,19 @@
         <v>2487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>871</v>
+        <v>906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5904</v>
+        <v>5619</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03244236256899283</v>
+        <v>0.03244236256899282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01136665041010114</v>
+        <v>0.01182261071194322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07701400200102426</v>
+        <v>0.073303876034048</v>
       </c>
     </row>
     <row r="17">
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2573</v>
+        <v>2376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01737325401742884</v>
@@ -8952,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08998459553083674</v>
+        <v>0.08309491698223552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -8961,19 +8961,19 @@
         <v>2228</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5283</v>
+        <v>5623</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04636226128538921</v>
+        <v>0.04636226128538919</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01293241208099288</v>
+        <v>0.01330733225517586</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1099124342061942</v>
+        <v>0.1170049816412786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -8982,19 +8982,19 @@
         <v>2725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955</v>
+        <v>901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6044</v>
+        <v>6166</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03554924042746004</v>
+        <v>0.03554924042746003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01245289585778357</v>
+        <v>0.01175752468304985</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0788459020539697</v>
+        <v>0.08043423074891999</v>
       </c>
     </row>
     <row r="18">
@@ -9011,19 +9011,19 @@
         <v>1769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4605</v>
+        <v>5007</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06188076286605423</v>
+        <v>0.06188076286605424</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01777083927450844</v>
+        <v>0.01763570174807105</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1610670326727784</v>
+        <v>0.1751119822490514</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -9032,19 +9032,19 @@
         <v>5436</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2759</v>
+        <v>2639</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9783</v>
+        <v>9641</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1131130509104821</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05739960247577742</v>
+        <v>0.05490133762399608</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2035464261916267</v>
+        <v>0.2005902831773932</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -9053,19 +9053,19 @@
         <v>7206</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3923</v>
+        <v>3718</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12249</v>
+        <v>11761</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09400319336678807</v>
+        <v>0.09400319336678806</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0511800390517125</v>
+        <v>0.04850947221040026</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1597936198437548</v>
+        <v>0.1534228022613952</v>
       </c>
     </row>
     <row r="19">
@@ -9082,19 +9082,19 @@
         <v>18247</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13922</v>
+        <v>13783</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22051</v>
+        <v>21889</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.638163310106805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4868961655983911</v>
+        <v>0.4820276506070164</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7711957240535776</v>
+        <v>0.7655284010518201</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -9103,19 +9103,19 @@
         <v>26893</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21781</v>
+        <v>21537</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32339</v>
+        <v>31432</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5595453509547513</v>
+        <v>0.559545350954751</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4531949879855173</v>
+        <v>0.4481090647462268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6728684820001343</v>
+        <v>0.6539887116998969</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -9124,19 +9124,19 @@
         <v>45140</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38061</v>
+        <v>38610</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51467</v>
+        <v>51539</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5888701782681217</v>
+        <v>0.5888701782681216</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4965192259308687</v>
+        <v>0.5036850185639035</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6714141713430393</v>
+        <v>0.6723544239789898</v>
       </c>
     </row>
     <row r="20">
@@ -9153,19 +9153,19 @@
         <v>2120</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5889</v>
+        <v>6267</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07413486448040855</v>
+        <v>0.07413486448040857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01807307291179499</v>
+        <v>0.01767536616209794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2059565697979011</v>
+        <v>0.2191627980320737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -9174,19 +9174,19 @@
         <v>1618</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4401</v>
+        <v>4362</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03366830089650463</v>
+        <v>0.03366830089650461</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008193506681703008</v>
+        <v>0.007916802137371488</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09157152766838796</v>
+        <v>0.09074996838312248</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -9195,19 +9195,19 @@
         <v>3738</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1404</v>
+        <v>1319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8043</v>
+        <v>8035</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04876249822574821</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01831393759700469</v>
+        <v>0.01720364244085519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1049218425909021</v>
+        <v>0.1048158196557166</v>
       </c>
     </row>
     <row r="21">
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2574</v>
+        <v>2553</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05940280555472685</v>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3151928812216525</v>
+        <v>0.3125838717712608</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2673</v>
+        <v>2584</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03167895480598529</v>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1745449902380931</v>
+        <v>0.168700997670812</v>
       </c>
     </row>
     <row r="24">
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3292</v>
+        <v>3349</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1304379752298028</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4029920364284668</v>
+        <v>0.4099775350929326</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -9446,16 +9446,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3445</v>
+        <v>3770</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06956133946371065</v>
+        <v>0.06956133946371067</v>
       </c>
       <c r="V24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2249278630943276</v>
+        <v>0.2461562213908237</v>
       </c>
     </row>
     <row r="25">
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2487</v>
+        <v>2561</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0841493967420148</v>
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3479429018444647</v>
+        <v>0.3582642955986464</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2173</v>
+        <v>2424</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0495787029499578</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2660855158086461</v>
+        <v>0.2967697524018293</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3196</v>
+        <v>3375</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06571317245895171</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2086954221443649</v>
+        <v>0.2203728321220827</v>
       </c>
     </row>
     <row r="27">
@@ -9637,19 +9637,19 @@
         <v>5492</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2981</v>
+        <v>3189</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6724</v>
+        <v>6730</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7683470906556409</v>
+        <v>0.7683470906556408</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4170570193144435</v>
+        <v>0.4462008405141668</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9406157554936541</v>
+        <v>0.9415664905236368</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -9658,19 +9658,19 @@
         <v>3854</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1883</v>
+        <v>1846</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6001</v>
+        <v>6055</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4718973576104843</v>
+        <v>0.4718973576104842</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2305614149421902</v>
+        <v>0.2260339283624165</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7346758432575476</v>
+        <v>0.7412831265164342</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>14</v>
@@ -9679,19 +9679,19 @@
         <v>9346</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6149</v>
+        <v>6312</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12215</v>
+        <v>11965</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6102532496714479</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4014957907314946</v>
+        <v>0.4121549121116483</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7975718682302968</v>
+        <v>0.7812508725732383</v>
       </c>
     </row>
     <row r="29">
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3238</v>
+        <v>3182</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1475035126023443</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4529955438842816</v>
+        <v>0.4451388495956708</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -9729,19 +9729,19 @@
         <v>2358</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4519</v>
+        <v>4773</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2886831586550283</v>
+        <v>0.2886831586550282</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07756281444801078</v>
+        <v>0.08100191205500669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5532582749654096</v>
+        <v>0.5843157751033922</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -9750,19 +9750,19 @@
         <v>3412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1117</v>
+        <v>1350</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6248</v>
+        <v>6363</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2227932835999044</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07293411513052143</v>
+        <v>0.08813147622813612</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4079963871996536</v>
+        <v>0.4154475660312561</v>
       </c>
     </row>
     <row r="30">
@@ -9854,19 +9854,19 @@
         <v>2152</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6966</v>
+        <v>6584</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01992590324636843</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004642321787619374</v>
+        <v>0.004576161535445674</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06450776504590229</v>
+        <v>0.06096634349662552</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -9875,19 +9875,19 @@
         <v>9124</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5514</v>
+        <v>5449</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14083</v>
+        <v>15426</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03337392807340125</v>
+        <v>0.03337392807340124</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02016845804402326</v>
+        <v>0.01993150002666092</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05151145650395132</v>
+        <v>0.05642163230685805</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -9896,19 +9896,19 @@
         <v>11276</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6803</v>
+        <v>6598</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>17024</v>
+        <v>17129</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.02956615897543255</v>
+        <v>0.02956615897543256</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01783816459382418</v>
+        <v>0.01729889237743836</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04463697911297166</v>
+        <v>0.04491332339049597</v>
       </c>
     </row>
     <row r="32">
@@ -9925,19 +9925,19 @@
         <v>8091</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4677</v>
+        <v>4464</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12994</v>
+        <v>13299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07492192103941442</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04330621346972303</v>
+        <v>0.04133515310190684</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1203245982904138</v>
+        <v>0.1231487184714897</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>34</v>
@@ -9946,19 +9946,19 @@
         <v>18129</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12778</v>
+        <v>12911</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25021</v>
+        <v>25212</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06630924543307049</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04673796615637952</v>
+        <v>0.04722560358958025</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09151736333403859</v>
+        <v>0.09221514085714147</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -9967,19 +9967,19 @@
         <v>26220</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19660</v>
+        <v>19772</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>35065</v>
+        <v>34310</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.06874789946936741</v>
+        <v>0.06874789946936742</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05154794955397798</v>
+        <v>0.05184186192314531</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09194126364847564</v>
+        <v>0.08996183406708087</v>
       </c>
     </row>
     <row r="33">
@@ -9996,19 +9996,19 @@
         <v>14273</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9447</v>
+        <v>9190</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>21522</v>
+        <v>20732</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1321676295550846</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08747784272606345</v>
+        <v>0.08510444907201963</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1992990660643726</v>
+        <v>0.1919801888578271</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>101</v>
@@ -10017,19 +10017,19 @@
         <v>51457</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>42007</v>
+        <v>42908</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>61381</v>
+        <v>62511</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1882108072425908</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.153645546366517</v>
+        <v>0.1569414192204988</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2245095784053269</v>
+        <v>0.2286440138866717</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>124</v>
@@ -10038,19 +10038,19 @@
         <v>65729</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>55336</v>
+        <v>55122</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>77898</v>
+        <v>77432</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1723423445579083</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.145090772762883</v>
+        <v>0.1445294754993644</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2042479947449626</v>
+        <v>0.2030266668272207</v>
       </c>
     </row>
     <row r="34">
@@ -10067,19 +10067,19 @@
         <v>2149</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6318</v>
+        <v>5869</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01990134224945128</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00516882208752552</v>
+        <v>0.005211245479606975</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05850292053092904</v>
+        <v>0.05434687712594025</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -10088,19 +10088,19 @@
         <v>3427</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6600</v>
+        <v>6698</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01253312899520444</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005672311539574199</v>
+        <v>0.005624713430513418</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02414166466495617</v>
+        <v>0.02450043929739657</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -10109,19 +10109,19 @@
         <v>5576</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2888</v>
+        <v>2812</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10338</v>
+        <v>9878</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.0146194171377104</v>
+        <v>0.01461941713771041</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00757176481166504</v>
+        <v>0.00737305945426687</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02710503097746618</v>
+        <v>0.02589887825721485</v>
       </c>
     </row>
     <row r="35">
@@ -10138,19 +10138,19 @@
         <v>3703</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1188</v>
+        <v>1318</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8299</v>
+        <v>8691</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03429206164415165</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0110040313688419</v>
+        <v>0.01220912310271701</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07684681138442737</v>
+        <v>0.08047896502845216</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>34</v>
@@ -10159,19 +10159,19 @@
         <v>19146</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>13709</v>
+        <v>13005</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26875</v>
+        <v>26392</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07003060445826415</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0501429078619245</v>
+        <v>0.04756896482163788</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09829892706596874</v>
+        <v>0.09653130171102441</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>40</v>
@@ -10180,19 +10180,19 @@
         <v>22849</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>16107</v>
+        <v>16535</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>31457</v>
+        <v>31629</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.05991134005443463</v>
+        <v>0.05991134005443464</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04223335469435337</v>
+        <v>0.04335571175189304</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08248000983313299</v>
+        <v>0.08293149877631241</v>
       </c>
     </row>
     <row r="36">
@@ -10209,19 +10209,19 @@
         <v>5897</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2737</v>
+        <v>3011</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10471</v>
+        <v>11007</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0546037071456547</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02534323294634035</v>
+        <v>0.02788105254508269</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09696415091223888</v>
+        <v>0.1019305224501199</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>29</v>
@@ -10230,19 +10230,19 @@
         <v>14899</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>9846</v>
+        <v>9907</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>21257</v>
+        <v>21486</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05449649810030437</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0360138816000115</v>
+        <v>0.0362366180229458</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07774937708029603</v>
+        <v>0.078590127243723</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -10251,19 +10251,19 @@
         <v>20796</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>15099</v>
+        <v>15306</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>28842</v>
+        <v>28656</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.0545268540295325</v>
+        <v>0.05452685402953251</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03958934901931525</v>
+        <v>0.04013247225182268</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07562431225791706</v>
+        <v>0.07513635353320855</v>
       </c>
     </row>
     <row r="37">
@@ -10280,19 +10280,19 @@
         <v>65778</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>57552</v>
+        <v>57702</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>73351</v>
+        <v>73549</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6091212139696287</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5329472522304337</v>
+        <v>0.5343328346475186</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6792464809631321</v>
+        <v>0.6810820458028247</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>265</v>
@@ -10301,19 +10301,19 @@
         <v>144520</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>132474</v>
+        <v>132299</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>156496</v>
+        <v>156767</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5286044905280618</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4845458590441762</v>
+        <v>0.4839033044510649</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5724088093325753</v>
+        <v>0.5733986373872079</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>367</v>
@@ -10322,19 +10322,19 @@
         <v>210298</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>195561</v>
+        <v>196008</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>226188</v>
+        <v>225843</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5514025664785308</v>
+        <v>0.5514025664785309</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5127612465989579</v>
+        <v>0.5139325890582512</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5930645559660888</v>
+        <v>0.5921609516989094</v>
       </c>
     </row>
     <row r="38">
@@ -10351,19 +10351,19 @@
         <v>5947</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3004</v>
+        <v>3024</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>10957</v>
+        <v>10587</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05506622115024624</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0278130723542502</v>
+        <v>0.02799886188492637</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1014648205404419</v>
+        <v>0.09804008683313063</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>25</v>
@@ -10372,19 +10372,19 @@
         <v>12697</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>8672</v>
+        <v>8377</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18436</v>
+        <v>19050</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0464412971691028</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03171966705682919</v>
+        <v>0.03063964923380234</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06743411368050277</v>
+        <v>0.06968003243294743</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>35</v>
@@ -10393,19 +10393,19 @@
         <v>18644</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>13328</v>
+        <v>13283</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>25283</v>
+        <v>26275</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.04888341929708323</v>
+        <v>0.04888341929708324</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03494622268700355</v>
+        <v>0.03482846368993745</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06629247672722212</v>
+        <v>0.06889265171081742</v>
       </c>
     </row>
     <row r="39">
